--- a/Lipidoma/most_important_features_tot.xlsx
+++ b/Lipidoma/most_important_features_tot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PC 16:0_16:1</t>
+          <t>LPC 18:1_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LPC 18:2_A</t>
+          <t>LPC 16:0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LPC O-18:1_A</t>
+          <t>PC O-20:1</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LPC 20:3</t>
+          <t>LPC 18:1_B</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PC O-20:1</t>
+          <t>LPC O-18:1_A</t>
         </is>
       </c>
     </row>
@@ -516,12 +516,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LPC 18:3</t>
+          <t>LPC 17:0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LPC 17:0</t>
+          <t>LPC 20:2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LPC 14:0</t>
+          <t>LPC 17:1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LPC 20:2</t>
+          <t>LPC 18:0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LPC O-18:1_B</t>
+          <t>LPC O-16:1</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PI 16:0_18:1</t>
+          <t>LPC 20:2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LPC 18:2_B</t>
+          <t>LPC 17:0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LPC O-16:1</t>
+          <t>LPC O-18:1_B</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SM 12:2;2O/24:1</t>
+          <t>LPC 16:1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LPC 15:0</t>
+          <t>LPC 20:0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LPC O-24:1</t>
+          <t>LPC 18:0</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LPC 18:2_B</t>
+          <t>LPC 15:0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LPC 18:0</t>
+          <t>LPC O-24:1</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LPC 20:4_B</t>
+          <t>LPC 14:0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LPC 16:1</t>
+          <t>LPC 19:0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -636,12 +636,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PC 15:0_15:0</t>
+          <t>LPC 18:0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LPC 18:0</t>
+          <t>LPC 16:1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LPC 20:4_A</t>
+          <t>LPC 18:2_B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LPC 14:0</t>
+          <t>PC O-20:1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LPC 19:0</t>
+          <t>LPC 20:2</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SM 19:2;2O/17:0</t>
+          <t>LPC 20:3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LPC 20:3</t>
+          <t>LPC 15:0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LPC 20:2</t>
+          <t>LPC 18:1_B</t>
         </is>
       </c>
     </row>
@@ -696,17 +696,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PC 19:0_18:4</t>
+          <t>LPC 20:0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LPC 18:2_A</t>
+          <t>LPC O-16:0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LPC 18:1_B</t>
+          <t>LPC 19:0</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PC 16:0_15:1</t>
+          <t>LPC 18:2_A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>LPC O-16:1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>LPC 20:0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>DG 18:0_18:1</t>
         </is>
       </c>
     </row>
@@ -736,17 +736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PC 20:4_20:4</t>
+          <t>DG 16:0_18:1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LPC 19:0</t>
+          <t>LPC O-18:1_A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LPC 20:0</t>
+          <t>DG 18:0_18:1</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LPC 22:6</t>
+          <t>LPC 19:0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TG 18:1_18:1_20:1</t>
+          <t>LPC O-18:1_B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PC O-34:1</t>
+          <t>PC O-20:1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TG 16:0_16:0_18:1</t>
+          <t>LPC O-18:0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PC 13:0_22:4</t>
+          <t>TG 18:1_18:1_18:1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TG 18:1_18:1_18:1</t>
+          <t>LPC O-24:1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LPC 16:1</t>
+          <t>LPC 17:1</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PC 16:0_20:4_B</t>
+          <t>TG 18:1_18:1_20:1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PC O-34:1</t>
+          <t>DG 16:0_18:1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LPC 17:1</t>
+          <t>LPC 16:1</t>
         </is>
       </c>
     </row>
@@ -836,617 +836,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PC O-32:0</t>
+          <t>PC O-38:5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PC O-20:1</t>
+          <t>LPC 14:0</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>LPC 15:0</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>SM 23:0;2O/17:0</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>TG 18:1_18:2_22:0</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>LPE 18:0</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PC 14:0_16:1</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>LPC O-16:1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>LPC 14:0</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>SM 19:2;2O/16:0</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>TG 16:0_18:1_18:1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>TG 18:1_18:1_20:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PC 20:1_20:1</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>PI 18:0_18:2</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>TG 18:1_18:2_24:0</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>PC 10:0_28:7</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>DG 16:0_18:1</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>TG 18:1_18:1_18:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>SM 18:1;2O/18:0</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>LPC 18:3</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>TG 18:0_18:0_18:2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>PC 19:2_19:2_B</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>TG 18:0_18:0_18:2</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>TG 18:1_18:2_22:0</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>LPC 15:0</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>PC 16:0_20:4_B</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>LPC 18:2_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>PC O-38:5</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>PC 16:0_16:1</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>TG 16:0_16:0_18:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Cer 18:1;2O/24:0</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>PI 16:0_18:1</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>PC O-38:5</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>PC 18:0_20:4</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>LPC O-18:1_B</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>PC 16:0_22:6_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>CE 20:4</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>LPC O-16:0</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>PC 18:1_22:6</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>CE 20:5</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>TG 18:1_18:2_24:0</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>PC O-18:1_20:4</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>PC O-18:1_16:0</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>PC O-38:5</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>TG 14:0_16:0_18:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>PC O-36:3_A</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>LPC O-24:1</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>PC 16:0_20:4_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>SM 21:1;2O/17:1</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>LPC O-18:1_A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>TG 15:0_16:0_18:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>PC O-18:1_20:4</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>LPC O-18:0</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>TG 16:0_16:0_16:0</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>PI 18:0_18:2</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>PC 15:0_15:0</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>PC 16:0_22:6_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>SM 21:1;2O/18:0</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>CE 20:4</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>TG 16:0_17:1_18:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>PC O-36:2_A</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>LPE 18:0</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>LPC 20:3</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>LPC 16:1</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>PC O-36:2_A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>DG 18:1_18:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>LPC 17:1</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>LPC 20:4_B</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>TG 16:0_18:1_18:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>SM 42:2;3O</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>TG 16:0_16:0_16:0</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>TG 16:0_17:0_18:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>PC 20:0_18:5</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>TG 14:0_16:0_18:1</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>LPC 18:3</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>PI 16:0_18:2</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>PC 20:1_20:1</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>CE 20:4</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>PC O-16:0_16:0</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>TG 16:0_17:1_18:1</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>LPC 18:2_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>SM 18:1;2O/22:0</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>TG 15:0_16:0_18:1</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>PC 20:0_18:5</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>PI 38:4</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>TG 16:0_17:0_18:1</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>TG 12:0_16:0_18:1</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>PC 16:0_22:6_A</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>SM 12:2;2O/24:1</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>TG 16:0_17:0_18:0</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>SM 16:1;2O/22:0</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>PC O-18:1_20:4</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>TG 17:0_18:1_18:1</t>
         </is>
       </c>
     </row>
